--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/WYOMING_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/WYOMING_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D354"/>
+  <dimension ref="A1:D348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C5">
@@ -553,7 +553,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C14">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C36">
@@ -1000,7 +1000,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1397,7 +1397,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C77">
@@ -1410,7 +1410,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C78">
@@ -1462,7 +1462,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1558,7 +1558,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C89">
@@ -1597,7 +1597,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C92">
@@ -1636,7 +1636,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C95">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C98">
@@ -1693,7 +1693,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C99">
@@ -1745,7 +1745,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C103">
@@ -1862,7 +1862,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C112">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C115">
@@ -1958,7 +1958,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C119">
@@ -1971,7 +1971,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C120">
@@ -2010,7 +2010,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C123">
@@ -2023,7 +2023,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C124">
@@ -2088,7 +2088,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C129">
@@ -2145,7 +2145,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C133">
@@ -2158,7 +2158,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C134">
@@ -2171,7 +2171,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C135">
@@ -2236,7 +2236,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C140">
@@ -2280,7 +2280,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C143">
@@ -2358,7 +2358,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C149">
@@ -2384,7 +2384,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C151">
@@ -2397,7 +2397,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C152">
@@ -2436,7 +2436,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C155">
@@ -2475,7 +2475,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C158">
@@ -2501,7 +2501,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C160">
@@ -2540,7 +2540,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2966,7 +2966,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C195">
@@ -3049,7 +3049,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C201">
@@ -3088,7 +3088,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C204">
@@ -3158,7 +3158,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C209">
@@ -3202,7 +3202,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C212">
@@ -3215,7 +3215,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C213">
@@ -3280,7 +3280,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C218">
@@ -3454,7 +3454,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C231">
@@ -3623,7 +3623,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C244">
@@ -3649,7 +3649,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C246">
@@ -3771,7 +3771,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C255">
@@ -3880,7 +3880,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C263">
@@ -3893,7 +3893,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C264">
@@ -4181,7 +4181,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C285">
@@ -4373,7 +4373,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C299">
@@ -4386,7 +4386,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C300">
@@ -4425,7 +4425,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C303">
@@ -4451,7 +4451,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C305">
@@ -4555,7 +4555,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -4651,7 +4651,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C320">
@@ -4903,7 +4903,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C339">
@@ -4942,7 +4942,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C342">
@@ -4968,7 +4968,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C344">
@@ -5028,41 +5028,6 @@
       </c>
       <c r="D348">
         <v>1</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/WYOMING_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/WYOMING_2024.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Pabellón De Arteaga</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Rincón De Romos</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Angel Albino Corzo</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Bochil</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Chiapa De Corzo</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Coapilla</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -603,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -616,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -629,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -642,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -655,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Tuxtla Chico</t>
@@ -668,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Ascensión</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Bocoyna</t>
@@ -725,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Buenaventura</t>
@@ -738,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Casas Grandes</t>
@@ -751,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -764,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -777,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -790,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -803,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Guazapares</t>
@@ -816,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Guerrero</t>
@@ -829,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Gómez Farías</t>
@@ -842,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -855,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Ignacio Zaragoza</t>
@@ -868,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -881,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -894,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Meoqui</t>
@@ -907,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -920,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -933,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -946,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Rosario</t>
@@ -959,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Saucillo</t>
@@ -972,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Temósachic</t>
@@ -985,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1016,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1029,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1042,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1055,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -1068,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1081,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1094,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1107,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -1120,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1133,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Milpa Alta</t>
@@ -1146,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1159,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -1172,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1203,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -1216,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Viesca</t>
@@ -1229,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1260,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1291,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -1304,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -1317,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -1330,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Indé</t>
@@ -1343,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Mapimí</t>
@@ -1356,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Mezquital</t>
@@ -1369,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -1382,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>San Bernardo</t>
@@ -1395,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>San Luis Del Cordero</t>
@@ -1408,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>San Pedro Del Gallo</t>
@@ -1421,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Topia</t>
@@ -1434,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -1447,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1478,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -1491,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -1504,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -1517,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Cuautitlán</t>
@@ -1530,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Cuautitlán Izcalli</t>
@@ -1543,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -1556,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1569,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Ixtapaluca</t>
@@ -1582,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -1595,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -1608,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -1621,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -1634,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1647,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1660,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1691,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Apaseo El Grande</t>
@@ -1704,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1717,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -1730,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Doctor Mora</t>
@@ -1743,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -1756,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -1769,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1782,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -1795,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>León</t>
@@ -1808,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -1821,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -1834,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -1847,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -1860,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>San Miguel De Allende</t>
@@ -1873,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Villagrán</t>
@@ -1886,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1917,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -1930,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -1943,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1956,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -1969,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -1982,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Copala</t>
@@ -1995,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Copalillo</t>
@@ -2008,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -2021,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -2034,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -2047,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -2060,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -2073,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -2086,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -2099,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2130,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Apan</t>
@@ -2143,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Cuautepec De Hinojosa</t>
@@ -2156,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Mixquiahuala De Juárez</t>
@@ -2169,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -2182,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Pacula</t>
@@ -2195,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Tizayuca</t>
@@ -2208,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Tlahuiltepa</t>
@@ -2221,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Tlanchinol</t>
@@ -2234,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -2247,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2278,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -2291,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -2304,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Chimaltitán</t>
@@ -2317,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -2330,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -2343,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Jamay</t>
@@ -2356,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -2369,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -2382,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>San Diego De Alejandría</t>
@@ -2395,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -2408,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>San Julián</t>
@@ -2421,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -2434,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -2447,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -2460,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -2473,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -2486,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -2499,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -2512,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -2525,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2556,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Angamacutiro</t>
@@ -2569,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Apatzingán</t>
@@ -2582,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Ario</t>
@@ -2595,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Carácuaro</t>
@@ -2608,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -2621,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Epitacio Huerta</t>
@@ -2634,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>José Sixto Verduzco</t>
@@ -2647,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>La Huacana</t>
@@ -2660,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -2673,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Madero</t>
@@ -2686,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -2699,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Nuevo Parangaricutiro</t>
@@ -2712,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Numarán</t>
@@ -2725,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -2738,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Queréndaro</t>
@@ -2751,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Sahuayo</t>
@@ -2764,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Salvador Escalante</t>
@@ -2777,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Tanhuato</t>
@@ -2790,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Taretan</t>
@@ -2803,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -2816,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Tumbiscatío</t>
@@ -2829,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -2842,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -2855,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Yurécuaro</t>
@@ -2868,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -2881,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -2894,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -2907,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -2920,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -2933,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2964,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Puente De Ixtla</t>
@@ -2977,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Tepalcingo</t>
@@ -2990,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Tetecala</t>
@@ -3003,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -3016,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3047,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Ixtlán Del Río</t>
@@ -3060,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>La Yesca</t>
@@ -3073,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -3086,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Santa María Del Oro</t>
@@ -3099,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -3112,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3143,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -3156,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>San Nicolás De Los Garza</t>
@@ -3169,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3200,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -3213,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Ocotlán De Morelos</t>
@@ -3226,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>San Jorge Nuchita</t>
@@ -3239,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -3252,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>San Juan Guichicovi</t>
@@ -3265,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>San Juan Lachao</t>
@@ -3278,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>San Martín De Los Cansecos</t>
@@ -3291,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>San Pablo Cuatro Venados</t>
@@ -3304,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>San Pedro Mixtepec -Dto. 22 -</t>
@@ -3317,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>San Pedro Mártir</t>
@@ -3330,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Santa María Huazolotitlán</t>
@@ -3343,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Santa María Temaxcaltepec</t>
@@ -3356,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Santa María Tlahuitoltepec</t>
@@ -3369,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -3382,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Santiago Yosondúa</t>
@@ -3395,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -3408,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3439,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Aquixtla</t>
@@ -3452,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Chalchicomula De Sesma</t>
@@ -3465,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -3478,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -3491,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -3504,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlán</t>
@@ -3517,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Jopala</t>
@@ -3530,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Nicolás Bravo</t>
@@ -3543,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -3556,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Quimixtlán</t>
@@ -3569,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>San Pablo Anicano</t>
@@ -3582,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Tecamachalco</t>
@@ -3595,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -3608,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -3621,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Tepexi De Rodríguez</t>
@@ -3634,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -3647,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -3660,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Tlaola</t>
@@ -3673,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Tlapacoya</t>
@@ -3686,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -3699,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Yehualtepec</t>
@@ -3712,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Zacapala</t>
@@ -3725,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Zongozotla</t>
@@ -3738,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3769,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -3782,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Tequisquiapan</t>
@@ -3795,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3826,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -3839,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Guadalcázar</t>
@@ -3852,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -3865,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>San Martín Chalchicuautla</t>
@@ -3878,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -3891,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -3904,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -3917,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3948,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Badiraguato</t>
@@ -3961,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -3974,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -3987,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Navolato</t>
@@ -4000,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Sinaloa</t>
@@ -4013,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4044,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Bacanora</t>
@@ -4057,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Cajeme</t>
@@ -4070,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -4083,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Guaymas</t>
@@ -4096,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -4109,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Navojoa</t>
@@ -4122,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4153,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -4166,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -4179,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Jalpa De Méndez</t>
@@ -4192,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4223,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -4236,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4267,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Atlangatepec</t>
@@ -4280,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Calpulalpan</t>
@@ -4293,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -4306,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Cuapiaxtla</t>
@@ -4319,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Cuaxomulco</t>
@@ -4332,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Españita</t>
@@ -4345,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Huamantla</t>
@@ -4358,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Hueyotlipan</t>
@@ -4371,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Ixtacuixtla De Mariano Matamoros</t>
@@ -4384,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Muñoz De Domingo Arenas</t>
@@ -4397,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Panotla</t>
@@ -4410,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>San Lucas Tecopilco</t>
@@ -4423,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Sanctórum De Lázaro Cárdenas</t>
@@ -4436,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Santa Cruz Tlaxcala</t>
@@ -4449,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Tepetitla De Lardizábal</t>
@@ -4462,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Terrenate</t>
@@ -4475,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -4488,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -4501,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Xaltocan</t>
@@ -4514,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Yauhquemehcan</t>
@@ -4527,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Zacatelco</t>
@@ -4540,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4571,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -4584,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Calcahualco</t>
@@ -4597,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Comapa</t>
@@ -4610,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -4623,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Coyutla</t>
@@ -4636,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -4649,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -4662,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Jalacingo</t>
@@ -4675,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Mecatlán</t>
@@ -4688,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -4701,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -4714,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -4727,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -4740,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Tepatlaxco</t>
@@ -4753,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Tihuatlán</t>
@@ -4766,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -4779,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -4792,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Xoxocotla</t>
@@ -4805,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4836,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -4849,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Genaro Codina</t>
@@ -4862,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>General Francisco R. Murguía</t>
@@ -4875,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -4888,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Jerez</t>
@@ -4901,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Nochistlán De Mejía</t>
@@ -4914,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -4927,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Tepechitlán</t>
@@ -4940,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>Tlaltenango De Sánchez Román</t>
@@ -4953,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -4966,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -4979,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -4992,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -5005,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Total</t>
